--- a/Documents-Submission/Increment Matrix Update.xlsx
+++ b/Documents-Submission/Increment Matrix Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/Documents-Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Github\SE-project\SE-1-Project\Documents-Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55391CE3-F0A6-A34F-B0BA-D82ABF2D6E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817D8FE-3BE3-41D2-9DBE-1ACC1D0009D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inc Matrix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Robb</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -102,10 +102,6 @@
     <t>Team Size</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Sum of the efforts of each row must not be less than the required effort</t>
-  </si>
-  <si>
     <t>Effort (People*Weeks)</t>
   </si>
   <si>
@@ -223,23 +219,14 @@
     <t>View Vehicle Schedule</t>
   </si>
   <si>
-    <t>Assign Vehicles (Row No. 15 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Location (Row No. 16 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Operator (Row No. 17 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Time Slot (Row No. 18 UCID)</t>
+    <t>Modify Vehicle Assignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +255,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -431,6 +431,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -445,6 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,22 +786,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -806,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -830,7 +833,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -845,13 +848,13 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -860,7 +863,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -875,223 +878,223 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" s="14">
         <v>1</v>
       </c>
@@ -1099,10 +1102,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>47</v>
@@ -1115,131 +1119,88 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="14">
         <v>0</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D23" s="13">
         <v>0</v>
       </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C27" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A40:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents-Submission/Increment Matrix Update.xlsx
+++ b/Documents-Submission/Increment Matrix Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Github\SE-project\SE-1-Project\Documents-Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/Documents-Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817D8FE-3BE3-41D2-9DBE-1ACC1D0009D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55391CE3-F0A6-A34F-B0BA-D82ABF2D6E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inc Matrix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Robb</author>
   </authors>
   <commentList>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -102,6 +102,10 @@
     <t>Team Size</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Sum of the efforts of each row must not be less than the required effort</t>
+  </si>
+  <si>
     <t>Effort (People*Weeks)</t>
   </si>
   <si>
@@ -219,14 +223,23 @@
     <t>View Vehicle Schedule</t>
   </si>
   <si>
-    <t>Modify Vehicle Assignment</t>
+    <t>Assign Vehicles (Row No. 15 UCID)</t>
+  </si>
+  <si>
+    <t>Assign Location (Row No. 16 UCID)</t>
+  </si>
+  <si>
+    <t>Assign Operator (Row No. 17 UCID)</t>
+  </si>
+  <si>
+    <t>Assign Time Slot (Row No. 18 UCID)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,19 +268,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -431,8 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -447,7 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,22 +783,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -809,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -833,7 +830,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -848,12 +845,12 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -863,7 +860,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -878,12 +875,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -893,12 +890,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -908,205 +905,204 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>47</v>
@@ -1119,88 +1115,131 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
         <v>0</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D25" s="13">
         <v>0</v>
       </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="14">
         <v>0</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D26" s="13">
         <v>0</v>
       </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C30" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A43:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents-Submission/Increment Matrix Update.xlsx
+++ b/Documents-Submission/Increment Matrix Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/Documents-Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Github\SE-project\SE-1-Project\Documents-Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55391CE3-F0A6-A34F-B0BA-D82ABF2D6E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC20EC-28D2-49AA-BE10-8515F6D3C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inc Matrix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Robb</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -223,23 +223,14 @@
     <t>View Vehicle Schedule</t>
   </si>
   <si>
-    <t>Assign Vehicles (Row No. 15 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Location (Row No. 16 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Operator (Row No. 17 UCID)</t>
-  </si>
-  <si>
-    <t>Assign Time Slot (Row No. 18 UCID)</t>
+    <t>Modify Vehicle Assignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +258,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -429,7 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -445,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,22 +781,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -815,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -830,7 +828,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -845,7 +843,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -860,7 +858,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -875,7 +873,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -890,11 +888,11 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5">
@@ -905,14 +903,14 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="4">
@@ -920,14 +918,14 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -935,14 +933,14 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="4">
@@ -950,14 +948,14 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="4">
@@ -965,44 +963,48 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="4">
@@ -1010,44 +1012,44 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="4">
@@ -1055,14 +1057,14 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14">
+        <v>38</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="4">
@@ -1070,14 +1072,14 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="4">
@@ -1085,14 +1087,14 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14">
+        <v>40</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="4">
@@ -1100,14 +1102,14 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="14">
+        <v>41</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="4">
@@ -1115,14 +1117,14 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="14">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="4">
@@ -1130,14 +1132,14 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="14">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="4">
@@ -1145,101 +1147,56 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C27" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A40:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
